--- a/data/sp22_to_import.xlsx
+++ b/data/sp22_to_import.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="215">
   <si>
     <t xml:space="preserve">CourseId</t>
   </si>
@@ -76,6 +76,9 @@
     <t xml:space="preserve">D215</t>
   </si>
   <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
     <t xml:space="preserve">SE1622</t>
   </si>
   <si>
@@ -97,15 +100,18 @@
     <t xml:space="preserve">E2</t>
   </si>
   <si>
+    <t xml:space="preserve">M3</t>
+  </si>
+  <si>
     <t xml:space="preserve">SE1610</t>
   </si>
   <si>
-    <t xml:space="preserve">M3</t>
-  </si>
-  <si>
     <t xml:space="preserve">D217</t>
   </si>
   <si>
+    <t xml:space="preserve">M4</t>
+  </si>
+  <si>
     <t xml:space="preserve">SE1613</t>
   </si>
   <si>
@@ -113,9 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">SE1620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M4</t>
   </si>
   <si>
     <t xml:space="preserve">D218</t>
@@ -671,7 +674,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -699,12 +702,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -758,7 +755,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -781,11 +778,11 @@
   </sheetPr>
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A159" activeCellId="0" sqref="A159"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15.55"/>
   </cols>
@@ -833,7 +830,8 @@
         <v>10</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E2,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>11</v>
@@ -859,6 +857,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
+        <f aca="false">VLOOKUP(E3,$L$4:$M$14,2,0)</f>
         <v>9</v>
       </c>
       <c r="G3" s="0" t="s">
@@ -886,6 +885,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
+        <f aca="false">VLOOKUP(E4,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G4" s="0" t="s">
@@ -893,6 +893,12 @@
       </c>
       <c r="H4" s="0" t="s">
         <v>17</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -909,16 +915,23 @@
         <v>0</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E5,$L$4:$M$14,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>17</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="O5" s="2"/>
     </row>
@@ -927,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -936,16 +949,23 @@
         <v>0</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
+        <f aca="false">VLOOKUP(E6,$L$4:$M$14,2,0)</f>
         <v>1</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -962,16 +982,23 @@
         <v>0</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E7,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -980,7 +1007,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -992,13 +1019,20 @@
         <v>26</v>
       </c>
       <c r="F8" s="0" t="n">
+        <f aca="false">VLOOKUP(E8,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,7 +1040,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -1015,16 +1049,23 @@
         <v>0</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="0" t="n">
+        <f aca="false">VLOOKUP(E9,$L$4:$M$14,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
@@ -1041,16 +1082,23 @@
         <v>0</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="0" t="n">
+        <f aca="false">VLOOKUP(E10,$L$4:$M$14,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,7 +1106,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>9</v>
@@ -1067,16 +1115,23 @@
         <v>0</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="0" t="n">
+        <f aca="false">VLOOKUP(E11,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>9</v>
@@ -1096,13 +1151,20 @@
         <v>10</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E12,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>9</v>
@@ -1122,13 +1184,20 @@
         <v>14</v>
       </c>
       <c r="F13" s="0" t="n">
+        <f aca="false">VLOOKUP(E13,$L$4:$M$14,2,0)</f>
         <v>9</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,7 +1205,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>9</v>
@@ -1148,13 +1217,20 @@
         <v>16</v>
       </c>
       <c r="F14" s="0" t="n">
+        <f aca="false">VLOOKUP(E14,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,7 +1238,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>9</v>
@@ -1171,16 +1247,17 @@
         <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E15,$L$4:$M$14,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>9</v>
@@ -1197,16 +1274,17 @@
         <v>0</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="0" t="n">
+        <f aca="false">VLOOKUP(E16,$L$4:$M$14,2,0)</f>
         <v>1</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,7 +1292,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>9</v>
@@ -1223,16 +1301,17 @@
         <v>0</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E17,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,7 +1319,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>9</v>
@@ -1252,13 +1331,14 @@
         <v>26</v>
       </c>
       <c r="F18" s="0" t="n">
+        <f aca="false">VLOOKUP(E18,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,7 +1346,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>9</v>
@@ -1275,16 +1355,17 @@
         <v>0</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>7</v>
+        <f aca="false">VLOOKUP(E19,$L$4:$M$14,2,0)</f>
+        <v>5</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1292,7 +1373,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>9</v>
@@ -1301,16 +1382,17 @@
         <v>0</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3</v>
+        <f aca="false">VLOOKUP(E20,$L$4:$M$14,2,0)</f>
+        <v>6</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,7 +1400,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>9</v>
@@ -1327,16 +1409,17 @@
         <v>0</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" s="0" t="n">
+        <f aca="false">VLOOKUP(E21,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,7 +1427,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>9</v>
@@ -1356,13 +1439,14 @@
         <v>10</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E22,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,25 +1454,26 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>7</v>
+        <f aca="false">VLOOKUP(E23,$L$4:$M$14,2,0)</f>
+        <v>5</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,10 +1481,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
@@ -1408,13 +1493,14 @@
         <v>26</v>
       </c>
       <c r="F24" s="0" t="n">
+        <f aca="false">VLOOKUP(E24,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,25 +1508,26 @@
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E25,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,25 +1535,26 @@
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">VLOOKUP(E26,$L$4:$M$14,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,25 +1562,26 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>7</v>
+        <f aca="false">VLOOKUP(E27,$L$4:$M$14,2,0)</f>
+        <v>5</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,10 +1589,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
@@ -1512,13 +1601,14 @@
         <v>26</v>
       </c>
       <c r="F28" s="0" t="n">
+        <f aca="false">VLOOKUP(E28,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,25 +1616,26 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" s="0" t="n">
+        <f aca="false">VLOOKUP(E29,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,25 +1643,26 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">VLOOKUP(E30,$L$4:$M$14,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,10 +1670,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1</v>
@@ -1590,13 +1682,14 @@
         <v>14</v>
       </c>
       <c r="F31" s="0" t="n">
+        <f aca="false">VLOOKUP(E31,$L$4:$M$14,2,0)</f>
         <v>9</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,10 +1697,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1</v>
@@ -1616,13 +1709,14 @@
         <v>10</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E32,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,25 +1724,26 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" s="0" t="n">
+        <f aca="false">VLOOKUP(E33,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,25 +1751,26 @@
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">VLOOKUP(E34,$L$4:$M$14,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,25 +1778,26 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E35,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,25 +1805,26 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <f aca="false">VLOOKUP(E36,$L$4:$M$14,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,25 +1832,26 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>7</v>
+        <f aca="false">VLOOKUP(E37,$L$4:$M$14,2,0)</f>
+        <v>5</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,10 +1859,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1</v>
@@ -1772,13 +1871,14 @@
         <v>26</v>
       </c>
       <c r="F38" s="0" t="n">
+        <f aca="false">VLOOKUP(E38,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,25 +1886,26 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="0" t="n">
+        <f aca="false">VLOOKUP(E39,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,10 +1913,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>2</v>
@@ -1824,13 +1925,14 @@
         <v>16</v>
       </c>
       <c r="F40" s="0" t="n">
+        <f aca="false">VLOOKUP(E40,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,10 +1940,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>3</v>
@@ -1850,13 +1952,14 @@
         <v>26</v>
       </c>
       <c r="F41" s="0" t="n">
+        <f aca="false">VLOOKUP(E41,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,25 +1967,26 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E42,$L$4:$M$14,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,25 +1994,26 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>7</v>
+        <f aca="false">VLOOKUP(E43,$L$4:$M$14,2,0)</f>
+        <v>5</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1916,10 +2021,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>2</v>
@@ -1928,13 +2033,14 @@
         <v>10</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E44,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,10 +2048,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>3</v>
@@ -1954,13 +2060,14 @@
         <v>26</v>
       </c>
       <c r="F45" s="0" t="n">
+        <f aca="false">VLOOKUP(E45,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1968,25 +2075,26 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E46,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1994,25 +2102,26 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>7</v>
+        <f aca="false">VLOOKUP(E47,$L$4:$M$14,2,0)</f>
+        <v>5</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,10 +2129,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>2</v>
@@ -2032,13 +2141,14 @@
         <v>26</v>
       </c>
       <c r="F48" s="0" t="n">
+        <f aca="false">VLOOKUP(E48,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,25 +2156,26 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>3</v>
+        <f aca="false">VLOOKUP(E49,$L$4:$M$14,2,0)</f>
+        <v>6</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,25 +2183,26 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>7</v>
+        <f aca="false">VLOOKUP(E50,$L$4:$M$14,2,0)</f>
+        <v>5</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,25 +2210,26 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F51" s="0" t="n">
+        <f aca="false">VLOOKUP(E51,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,25 +2237,26 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>3</v>
+        <f aca="false">VLOOKUP(E52,$L$4:$M$14,2,0)</f>
+        <v>6</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,10 +2264,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>3</v>
@@ -2162,13 +2276,14 @@
         <v>10</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E53,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,25 +2291,26 @@
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F54" s="0" t="n">
+        <f aca="false">VLOOKUP(E54,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,10 +2318,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>3</v>
@@ -2214,13 +2330,14 @@
         <v>14</v>
       </c>
       <c r="F55" s="0" t="n">
+        <f aca="false">VLOOKUP(E55,$L$4:$M$14,2,0)</f>
         <v>9</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,10 +2345,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>2</v>
@@ -2240,13 +2357,14 @@
         <v>10</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E56,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,10 +2372,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>3</v>
@@ -2266,13 +2384,14 @@
         <v>16</v>
       </c>
       <c r="F57" s="0" t="n">
+        <f aca="false">VLOOKUP(E57,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,10 +2399,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>2</v>
@@ -2292,13 +2411,14 @@
         <v>14</v>
       </c>
       <c r="F58" s="0" t="n">
+        <f aca="false">VLOOKUP(E58,$L$4:$M$14,2,0)</f>
         <v>9</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,25 +2426,26 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E59,$L$4:$M$14,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2332,10 +2453,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>2</v>
@@ -2344,13 +2465,14 @@
         <v>16</v>
       </c>
       <c r="F60" s="0" t="n">
+        <f aca="false">VLOOKUP(E60,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,25 +2480,26 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F61" s="0" t="n">
+        <f aca="false">VLOOKUP(E61,$L$4:$M$14,2,0)</f>
         <v>1</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,25 +2507,26 @@
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E62,$L$4:$M$14,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,25 +2534,26 @@
         <v>61</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E63,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,25 +2561,26 @@
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F64" s="0" t="n">
+        <f aca="false">VLOOKUP(E64,$L$4:$M$14,2,0)</f>
         <v>1</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,10 +2588,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>3</v>
@@ -2474,13 +2600,14 @@
         <v>26</v>
       </c>
       <c r="F65" s="0" t="n">
+        <f aca="false">VLOOKUP(E65,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,25 +2615,26 @@
         <v>64</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E66,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,10 +2642,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>2</v>
@@ -2526,13 +2654,14 @@
         <v>26</v>
       </c>
       <c r="F67" s="0" t="n">
+        <f aca="false">VLOOKUP(E67,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,25 +2669,26 @@
         <v>66</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>3</v>
+        <f aca="false">VLOOKUP(E68,$L$4:$M$14,2,0)</f>
+        <v>6</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2566,25 +2696,26 @@
         <v>67</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>7</v>
+        <f aca="false">VLOOKUP(E69,$L$4:$M$14,2,0)</f>
+        <v>5</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,25 +2723,26 @@
         <v>68</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F70" s="0" t="n">
+        <f aca="false">VLOOKUP(E70,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2618,25 +2750,26 @@
         <v>69</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>3</v>
+        <f aca="false">VLOOKUP(E71,$L$4:$M$14,2,0)</f>
+        <v>6</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,10 +2777,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>3</v>
@@ -2656,13 +2789,14 @@
         <v>10</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E72,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2670,25 +2804,26 @@
         <v>71</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F73" s="0" t="n">
+        <f aca="false">VLOOKUP(E73,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,10 +2831,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>3</v>
@@ -2708,13 +2843,14 @@
         <v>14</v>
       </c>
       <c r="F74" s="0" t="n">
+        <f aca="false">VLOOKUP(E74,$L$4:$M$14,2,0)</f>
         <v>9</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2722,25 +2858,26 @@
         <v>73</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>3</v>
+        <f aca="false">VLOOKUP(E75,$L$4:$M$14,2,0)</f>
+        <v>6</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2748,25 +2885,26 @@
         <v>74</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E76,$L$4:$M$14,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,25 +2912,26 @@
         <v>75</v>
       </c>
       <c r="B77" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <f aca="false">VLOOKUP(E77,$L$4:$M$14,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,25 +2939,26 @@
         <v>76</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E78,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,10 +2966,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1</v>
@@ -2838,13 +2978,14 @@
         <v>26</v>
       </c>
       <c r="F79" s="0" t="n">
+        <f aca="false">VLOOKUP(E79,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,25 +2993,26 @@
         <v>78</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>7</v>
+        <f aca="false">VLOOKUP(E80,$L$4:$M$14,2,0)</f>
+        <v>5</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,25 +3020,26 @@
         <v>79</v>
       </c>
       <c r="B81" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <f aca="false">VLOOKUP(E81,$L$4:$M$14,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,25 +3047,26 @@
         <v>80</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F82" s="0" t="n">
+        <f aca="false">VLOOKUP(E82,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,10 +3074,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>1</v>
@@ -2942,13 +3086,14 @@
         <v>10</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E83,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,10 +3101,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>1</v>
@@ -2968,13 +3113,14 @@
         <v>14</v>
       </c>
       <c r="F84" s="0" t="n">
+        <f aca="false">VLOOKUP(E84,$L$4:$M$14,2,0)</f>
         <v>9</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,10 +3128,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>1</v>
@@ -2994,13 +3140,14 @@
         <v>16</v>
       </c>
       <c r="F85" s="0" t="n">
+        <f aca="false">VLOOKUP(E85,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,25 +3155,26 @@
         <v>84</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E86,$L$4:$M$14,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3034,25 +3182,26 @@
         <v>85</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F87" s="0" t="n">
+        <f aca="false">VLOOKUP(E87,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,10 +3209,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>5</v>
@@ -3072,13 +3221,14 @@
         <v>14</v>
       </c>
       <c r="F88" s="0" t="n">
+        <f aca="false">VLOOKUP(E88,$L$4:$M$14,2,0)</f>
         <v>9</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,10 +3236,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>4</v>
@@ -3098,13 +3248,14 @@
         <v>16</v>
       </c>
       <c r="F89" s="0" t="n">
+        <f aca="false">VLOOKUP(E89,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,25 +3263,26 @@
         <v>88</v>
       </c>
       <c r="B90" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>129</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F90" s="0" t="n">
+        <f aca="false">VLOOKUP(E90,$L$4:$M$14,2,0)</f>
         <v>1</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3138,25 +3290,26 @@
         <v>89</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E91,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,25 +3317,26 @@
         <v>90</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>7</v>
+        <f aca="false">VLOOKUP(E92,$L$4:$M$14,2,0)</f>
+        <v>5</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,25 +3344,26 @@
         <v>91</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F93" s="0" t="n">
+        <f aca="false">VLOOKUP(E93,$L$4:$M$14,2,0)</f>
         <v>1</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3216,10 +3371,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>5</v>
@@ -3228,13 +3383,14 @@
         <v>26</v>
       </c>
       <c r="F94" s="0" t="n">
+        <f aca="false">VLOOKUP(E94,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3242,25 +3398,26 @@
         <v>93</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>7</v>
+        <f aca="false">VLOOKUP(E95,$L$4:$M$14,2,0)</f>
+        <v>5</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,25 +3425,26 @@
         <v>94</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F96" s="0" t="n">
+        <f aca="false">VLOOKUP(E96,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,10 +3452,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>4</v>
@@ -3306,13 +3464,14 @@
         <v>26</v>
       </c>
       <c r="F97" s="0" t="n">
+        <f aca="false">VLOOKUP(E97,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,25 +3479,26 @@
         <v>96</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>3</v>
+        <f aca="false">VLOOKUP(E98,$L$4:$M$14,2,0)</f>
+        <v>6</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,25 +3506,26 @@
         <v>97</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F99" s="0" t="n">
+        <f aca="false">VLOOKUP(E99,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,10 +3533,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>5</v>
@@ -3384,13 +3545,14 @@
         <v>14</v>
       </c>
       <c r="F100" s="0" t="n">
+        <f aca="false">VLOOKUP(E100,$L$4:$M$14,2,0)</f>
         <v>9</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,25 +3560,26 @@
         <v>99</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>3</v>
+        <f aca="false">VLOOKUP(E101,$L$4:$M$14,2,0)</f>
+        <v>6</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,10 +3587,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>5</v>
@@ -3436,13 +3599,14 @@
         <v>10</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E102,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3450,10 +3614,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>4</v>
@@ -3462,13 +3626,14 @@
         <v>14</v>
       </c>
       <c r="F103" s="0" t="n">
+        <f aca="false">VLOOKUP(E103,$L$4:$M$14,2,0)</f>
         <v>9</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,25 +3641,26 @@
         <v>102</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E104,$L$4:$M$14,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,10 +3668,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>4</v>
@@ -3514,13 +3680,14 @@
         <v>10</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E105,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,10 +3695,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>5</v>
@@ -3540,13 +3707,14 @@
         <v>16</v>
       </c>
       <c r="F106" s="0" t="n">
+        <f aca="false">VLOOKUP(E106,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,10 +3722,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>6</v>
@@ -3566,13 +3734,14 @@
         <v>16</v>
       </c>
       <c r="F107" s="0" t="n">
+        <f aca="false">VLOOKUP(E107,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3580,25 +3749,26 @@
         <v>106</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>7</v>
+        <f aca="false">VLOOKUP(E108,$L$4:$M$14,2,0)</f>
+        <v>5</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,25 +3776,26 @@
         <v>107</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>3</v>
+        <f aca="false">VLOOKUP(E109,$L$4:$M$14,2,0)</f>
+        <v>6</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3632,25 +3803,26 @@
         <v>108</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F110" s="0" t="n">
+        <f aca="false">VLOOKUP(E110,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3658,10 +3830,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>6</v>
@@ -3670,13 +3842,14 @@
         <v>10</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E111,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3684,10 +3857,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>6</v>
@@ -3696,13 +3869,14 @@
         <v>14</v>
       </c>
       <c r="F112" s="0" t="n">
+        <f aca="false">VLOOKUP(E112,$L$4:$M$14,2,0)</f>
         <v>9</v>
       </c>
       <c r="G112" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3710,25 +3884,26 @@
         <v>111</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F113" s="0" t="n">
+        <f aca="false">VLOOKUP(E113,$L$4:$M$14,2,0)</f>
         <v>1</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,10 +3911,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>7</v>
@@ -3748,13 +3923,14 @@
         <v>14</v>
       </c>
       <c r="F114" s="0" t="n">
+        <f aca="false">VLOOKUP(E114,$L$4:$M$14,2,0)</f>
         <v>9</v>
       </c>
       <c r="G114" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3762,10 +3938,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>7</v>
@@ -3774,13 +3950,14 @@
         <v>10</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E115,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,25 +3965,26 @@
         <v>114</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E116,$L$4:$M$14,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,10 +3992,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>7</v>
@@ -3826,13 +4004,14 @@
         <v>16</v>
       </c>
       <c r="F117" s="0" t="n">
+        <f aca="false">VLOOKUP(E117,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,25 +4019,26 @@
         <v>116</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E118,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3866,25 +4046,26 @@
         <v>117</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F119" s="0" t="n">
+        <f aca="false">VLOOKUP(E119,$L$4:$M$14,2,0)</f>
         <v>1</v>
       </c>
       <c r="G119" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,25 +4073,26 @@
         <v>118</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>7</v>
+        <f aca="false">VLOOKUP(E120,$L$4:$M$14,2,0)</f>
+        <v>5</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,10 +4100,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>8</v>
@@ -3930,13 +4112,14 @@
         <v>16</v>
       </c>
       <c r="F121" s="0" t="n">
+        <f aca="false">VLOOKUP(E121,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,25 +4127,26 @@
         <v>120</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>3</v>
+        <f aca="false">VLOOKUP(E122,$L$4:$M$14,2,0)</f>
+        <v>6</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3970,10 +4154,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>1</v>
@@ -3982,13 +4166,14 @@
         <v>14</v>
       </c>
       <c r="F123" s="0" t="n">
+        <f aca="false">VLOOKUP(E123,$L$4:$M$14,2,0)</f>
         <v>9</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3996,10 +4181,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>2</v>
@@ -4008,13 +4193,14 @@
         <v>16</v>
       </c>
       <c r="F124" s="0" t="n">
+        <f aca="false">VLOOKUP(E124,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G124" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,25 +4208,26 @@
         <v>123</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F125" s="0" t="n">
+        <f aca="false">VLOOKUP(E125,$L$4:$M$14,2,0)</f>
         <v>1</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,25 +4235,26 @@
         <v>124</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E126,$L$4:$M$14,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4074,25 +4262,26 @@
         <v>125</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E127,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G127" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,25 +4289,26 @@
         <v>126</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F128" s="0" t="n">
+        <f aca="false">VLOOKUP(E128,$L$4:$M$14,2,0)</f>
         <v>1</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4126,10 +4316,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>8</v>
@@ -4138,13 +4328,14 @@
         <v>14</v>
       </c>
       <c r="F129" s="0" t="n">
+        <f aca="false">VLOOKUP(E129,$L$4:$M$14,2,0)</f>
         <v>9</v>
       </c>
       <c r="G129" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4152,10 +4343,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>8</v>
@@ -4164,13 +4355,14 @@
         <v>26</v>
       </c>
       <c r="F130" s="0" t="n">
+        <f aca="false">VLOOKUP(E130,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G130" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4178,25 +4370,26 @@
         <v>129</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E131,$L$4:$M$14,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G131" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4204,10 +4397,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>1</v>
@@ -4216,13 +4409,14 @@
         <v>16</v>
       </c>
       <c r="F132" s="0" t="n">
+        <f aca="false">VLOOKUP(E132,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G132" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4230,25 +4424,26 @@
         <v>131</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E133,$L$4:$M$14,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G133" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,25 +4451,26 @@
         <v>132</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F134" s="0" t="n">
+        <f aca="false">VLOOKUP(E134,$L$4:$M$14,2,0)</f>
         <v>1</v>
       </c>
       <c r="G134" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4282,10 +4478,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>4</v>
@@ -4294,13 +4490,14 @@
         <v>16</v>
       </c>
       <c r="F135" s="0" t="n">
+        <f aca="false">VLOOKUP(E135,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G135" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,25 +4505,26 @@
         <v>134</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E136,$L$4:$M$14,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G136" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,25 +4532,26 @@
         <v>135</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E137,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G137" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,25 +4559,26 @@
         <v>136</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>3</v>
+        <f aca="false">VLOOKUP(E138,$L$4:$M$14,2,0)</f>
+        <v>6</v>
       </c>
       <c r="G138" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,10 +4586,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>10</v>
@@ -4398,13 +4598,14 @@
         <v>10</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E139,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G139" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4412,10 +4613,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>2</v>
@@ -4424,13 +4625,14 @@
         <v>10</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E140,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G140" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,25 +4640,26 @@
         <v>139</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F141" s="0" t="n">
+        <f aca="false">VLOOKUP(E141,$L$4:$M$14,2,0)</f>
         <v>1</v>
       </c>
       <c r="G141" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,25 +4667,26 @@
         <v>140</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E142,$L$4:$M$14,2,0)</f>
+        <v>3</v>
       </c>
       <c r="G142" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,25 +4694,26 @@
         <v>141</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E143,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4516,25 +4721,26 @@
         <v>142</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E144,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G144" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,10 +4748,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>1</v>
@@ -4554,13 +4760,14 @@
         <v>16</v>
       </c>
       <c r="F145" s="0" t="n">
+        <f aca="false">VLOOKUP(E145,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G145" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4568,25 +4775,26 @@
         <v>144</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F146" s="0" t="n">
+        <f aca="false">VLOOKUP(E146,$L$4:$M$14,2,0)</f>
         <v>8</v>
       </c>
       <c r="G146" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4594,25 +4802,26 @@
         <v>145</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E147,$L$4:$M$14,2,0)</f>
+        <v>4</v>
       </c>
       <c r="G147" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4620,25 +4829,26 @@
         <v>146</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F148" s="0" t="n">
+        <f aca="false">VLOOKUP(E148,$L$4:$M$14,2,0)</f>
         <v>1</v>
       </c>
       <c r="G148" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,10 +4856,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>4</v>
@@ -4658,13 +4868,14 @@
         <v>26</v>
       </c>
       <c r="F149" s="0" t="n">
+        <f aca="false">VLOOKUP(E149,$L$4:$M$14,2,0)</f>
         <v>2</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,25 +4883,26 @@
         <v>148</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F150" s="0" t="n">
+        <f aca="false">VLOOKUP(E150,$L$4:$M$14,2,0)</f>
         <v>1</v>
       </c>
       <c r="G150" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,10 +4910,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>1</v>
@@ -4710,13 +4922,14 @@
         <v>16</v>
       </c>
       <c r="F151" s="0" t="n">
+        <f aca="false">VLOOKUP(E151,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G151" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,7 +4937,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C152" s="0" t="s">
         <v>9</v>
@@ -4736,13 +4949,14 @@
         <v>10</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>4</v>
+        <f aca="false">VLOOKUP(E152,$L$4:$M$14,2,0)</f>
+        <v>7</v>
       </c>
       <c r="G152" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,10 +4964,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>7</v>
@@ -4762,13 +4976,14 @@
         <v>16</v>
       </c>
       <c r="F153" s="0" t="n">
+        <f aca="false">VLOOKUP(E153,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G153" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,10 +4991,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>1</v>
@@ -4788,13 +5003,14 @@
         <v>16</v>
       </c>
       <c r="F154" s="0" t="n">
+        <f aca="false">VLOOKUP(E154,$L$4:$M$14,2,0)</f>
         <v>0</v>
       </c>
       <c r="G154" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
